--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.1787111764012</v>
+        <v>190.0871521093615</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.1669409966277</v>
+        <v>260.0856275692024</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.7313592594685</v>
+        <v>235.2634203065444</v>
       </c>
       <c r="AD2" t="n">
-        <v>141178.7111764012</v>
+        <v>190087.1521093615</v>
       </c>
       <c r="AE2" t="n">
-        <v>193166.9409966277</v>
+        <v>260085.6275692023</v>
       </c>
       <c r="AF2" t="n">
         <v>1.75034008886582e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.966666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174731.3592594686</v>
+        <v>235263.4203065444</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.4687648589925</v>
+        <v>107.8343286700371</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.364425877615</v>
+        <v>147.5436858011085</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.11771575880088</v>
+        <v>133.4623235071544</v>
       </c>
       <c r="AD3" t="n">
-        <v>78468.76485899249</v>
+        <v>107834.3286700371</v>
       </c>
       <c r="AE3" t="n">
-        <v>107364.4258776151</v>
+        <v>147543.6858011085</v>
       </c>
       <c r="AF3" t="n">
         <v>2.823476697463283e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.558333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>97117.71575880088</v>
+        <v>133462.3235071544</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.42326670858556</v>
+        <v>135.1112978902367</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9305674049342</v>
+        <v>184.8652384631189</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3392992175567</v>
+        <v>167.2219595642425</v>
       </c>
       <c r="AD2" t="n">
-        <v>96423.26670858556</v>
+        <v>135111.2978902367</v>
       </c>
       <c r="AE2" t="n">
-        <v>131930.5674049342</v>
+        <v>184865.2384631189</v>
       </c>
       <c r="AF2" t="n">
         <v>2.499104542003973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.870833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119339.2992175567</v>
+        <v>167221.9595642425</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.12975369253061</v>
+        <v>107.1714011428546</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.900575843545</v>
+        <v>146.6366391121194</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.69813492096475</v>
+        <v>132.6418440811141</v>
       </c>
       <c r="AD3" t="n">
-        <v>78129.75369253062</v>
+        <v>107171.4011428546</v>
       </c>
       <c r="AE3" t="n">
-        <v>106900.575843545</v>
+        <v>146636.6391121194</v>
       </c>
       <c r="AF3" t="n">
         <v>2.955862739294075e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.808333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>96698.13492096475</v>
+        <v>132641.8440811141</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.19762025915637</v>
+        <v>125.2309110894119</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9900720948922</v>
+        <v>171.3464573503353</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2976862669296</v>
+        <v>154.9933919471302</v>
       </c>
       <c r="AD2" t="n">
-        <v>97197.62025915636</v>
+        <v>125230.9110894119</v>
       </c>
       <c r="AE2" t="n">
-        <v>132990.0720948922</v>
+        <v>171346.4573503353</v>
       </c>
       <c r="AF2" t="n">
         <v>3.380571537704042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.091666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>120297.6862669296</v>
+        <v>154993.3919471302</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.86572478808995</v>
+        <v>115.2461153658218</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.8535169003276</v>
+        <v>157.6848193432276</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.51030405935</v>
+        <v>142.6356014971872</v>
       </c>
       <c r="AD2" t="n">
-        <v>86865.72478808995</v>
+        <v>115246.1153658218</v>
       </c>
       <c r="AE2" t="n">
-        <v>118853.5169003276</v>
+        <v>157684.8193432276</v>
       </c>
       <c r="AF2" t="n">
         <v>3.255985744022432e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>107510.30405935</v>
+        <v>142635.6014971872</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.0038516823747</v>
+        <v>145.9415046393785</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.1438787823018</v>
+        <v>199.6836051322879</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.9097963161081</v>
+        <v>180.626082116219</v>
       </c>
       <c r="AD2" t="n">
-        <v>109003.8516823747</v>
+        <v>145941.5046393785</v>
       </c>
       <c r="AE2" t="n">
-        <v>149143.8787823019</v>
+        <v>199683.6051322879</v>
       </c>
       <c r="AF2" t="n">
         <v>3.381487071440796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.120833333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>134909.7963161081</v>
+        <v>180626.082116219</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.119568097219</v>
+        <v>149.8537976660403</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.038695319911</v>
+        <v>205.0365770495509</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5283356262693</v>
+        <v>185.4681739066434</v>
       </c>
       <c r="AD2" t="n">
-        <v>111119.568097219</v>
+        <v>149853.7976660403</v>
       </c>
       <c r="AE2" t="n">
-        <v>152038.695319911</v>
+        <v>205036.5770495509</v>
       </c>
       <c r="AF2" t="n">
         <v>2.290198061622638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>137528.3356262693</v>
+        <v>185468.1739066434</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.39318751550987</v>
+        <v>107.5199736119898</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.2610176220251</v>
+        <v>147.1135713423219</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.02417664199</v>
+        <v>133.0732585686448</v>
       </c>
       <c r="AD3" t="n">
-        <v>78393.18751550987</v>
+        <v>107519.9736119898</v>
       </c>
       <c r="AE3" t="n">
-        <v>107261.0176220251</v>
+        <v>147113.5713423219</v>
       </c>
       <c r="AF3" t="n">
         <v>2.907864973554969e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.7625</v>
       </c>
       <c r="AH3" t="n">
-        <v>97024.17664198999</v>
+        <v>133073.2585686448</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.7843156627021</v>
+        <v>157.509234726292</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.2624293175687</v>
+        <v>215.5110837694291</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.490015010822</v>
+        <v>194.9430084062422</v>
       </c>
       <c r="AD2" t="n">
-        <v>120784.3156627021</v>
+        <v>157509.234726292</v>
       </c>
       <c r="AE2" t="n">
-        <v>165262.4293175687</v>
+        <v>215511.0837694291</v>
       </c>
       <c r="AF2" t="n">
         <v>3.333425913889107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.012499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>149490.015010822</v>
+        <v>194943.0084062422</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.03774447806421</v>
+        <v>116.7357560211385</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.4571259460091</v>
+        <v>159.7230114061385</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9608669083915</v>
+        <v>144.479271370235</v>
       </c>
       <c r="AD2" t="n">
-        <v>88037.74447806421</v>
+        <v>116735.7560211385</v>
       </c>
       <c r="AE2" t="n">
-        <v>120457.1259460091</v>
+        <v>159723.0114061385</v>
       </c>
       <c r="AF2" t="n">
         <v>3.041683505055823e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>108960.8669083915</v>
+        <v>144479.271370235</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.38107601092567</v>
+        <v>115.6665203077357</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8762020102454</v>
+        <v>158.260035931711</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.77152588859724</v>
+        <v>143.1559202217875</v>
       </c>
       <c r="AD3" t="n">
-        <v>77381.07601092567</v>
+        <v>115666.5203077357</v>
       </c>
       <c r="AE3" t="n">
-        <v>105876.2020102454</v>
+        <v>158260.035931711</v>
       </c>
       <c r="AF3" t="n">
         <v>3.117200113610819e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.991666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>95771.52588859724</v>
+        <v>143155.9202217875</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.65423426628517</v>
+        <v>121.6416709853554</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7736109394053</v>
+        <v>166.4355006938697</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6745154392624</v>
+        <v>150.5511301013852</v>
       </c>
       <c r="AD2" t="n">
-        <v>92654.23426628517</v>
+        <v>121641.6709853554</v>
       </c>
       <c r="AE2" t="n">
-        <v>126773.6109394053</v>
+        <v>166435.5006938697</v>
       </c>
       <c r="AF2" t="n">
         <v>2.702545372785823e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.520833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>114674.5154392624</v>
+        <v>150551.1301013852</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.68218266620933</v>
+        <v>106.6354539664988</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.2881894198924</v>
+        <v>145.903332541109</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.1441937980956</v>
+        <v>131.9785232600385</v>
       </c>
       <c r="AD3" t="n">
-        <v>77682.18266620932</v>
+        <v>106635.4539664988</v>
       </c>
       <c r="AE3" t="n">
-        <v>106288.1894198924</v>
+        <v>145903.332541109</v>
       </c>
       <c r="AF3" t="n">
         <v>3.01952388852949e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.837499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>96144.1937980956</v>
+        <v>131978.5232600385</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.0538070947983</v>
+        <v>172.0378271941781</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.0500887867137</v>
+        <v>235.389744940244</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.6754838218652</v>
+        <v>212.9244780547972</v>
       </c>
       <c r="AD2" t="n">
-        <v>133053.8070947982</v>
+        <v>172037.8271941781</v>
       </c>
       <c r="AE2" t="n">
-        <v>182050.0887867137</v>
+        <v>235389.744940244</v>
       </c>
       <c r="AF2" t="n">
         <v>1.922066154622548e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>164675.4838218652</v>
+        <v>212924.4780547972</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.50193987390993</v>
+        <v>107.7904448042231</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.4098173966034</v>
+        <v>147.4836419598822</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.1587751749244</v>
+        <v>133.4080101658627</v>
       </c>
       <c r="AD3" t="n">
-        <v>78501.93987390993</v>
+        <v>107790.4448042231</v>
       </c>
       <c r="AE3" t="n">
-        <v>107409.8173966034</v>
+        <v>147483.6419598823</v>
       </c>
       <c r="AF3" t="n">
         <v>2.84693142379828e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.629166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>97158.77517492441</v>
+        <v>133408.0101658627</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.98848334618626</v>
+        <v>115.4803895060996</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0214805752402</v>
+        <v>158.0053635574012</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6622375168674</v>
+        <v>142.9255534214468</v>
       </c>
       <c r="AD2" t="n">
-        <v>86988.48334618626</v>
+        <v>115480.3895060996</v>
       </c>
       <c r="AE2" t="n">
-        <v>119021.4805752402</v>
+        <v>158005.3635574012</v>
       </c>
       <c r="AF2" t="n">
         <v>3.197329863411623e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.245833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>107662.2375168674</v>
+        <v>142925.5534214468</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.87081410881943</v>
+        <v>115.3627202687328</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8604803334747</v>
+        <v>157.8443633156356</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.5166029122107</v>
+        <v>142.7799188167899</v>
       </c>
       <c r="AD3" t="n">
-        <v>86870.81410881942</v>
+        <v>115362.7202687328</v>
       </c>
       <c r="AE3" t="n">
-        <v>118860.4803334747</v>
+        <v>157844.3633156356</v>
       </c>
       <c r="AF3" t="n">
         <v>3.215499506676029e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.212499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>107516.6029122107</v>
+        <v>142779.91881679</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.25360890952841</v>
+        <v>124.8231769653344</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.3842370675192</v>
+        <v>170.7885775338126</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.9903730386553</v>
+        <v>154.488755397307</v>
       </c>
       <c r="AD2" t="n">
-        <v>87253.60890952841</v>
+        <v>124823.1769653344</v>
       </c>
       <c r="AE2" t="n">
-        <v>119384.2370675192</v>
+        <v>170788.5775338126</v>
       </c>
       <c r="AF2" t="n">
         <v>3.346724821476529e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.787499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>107990.3730386553</v>
+        <v>154488.755397307</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.04076537489053</v>
+        <v>135.2646350454993</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.1437004391764</v>
+        <v>185.0750411237068</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3412139411633</v>
+        <v>167.4117389533639</v>
       </c>
       <c r="AD2" t="n">
-        <v>98040.76537489053</v>
+        <v>135264.6350454992</v>
       </c>
       <c r="AE2" t="n">
-        <v>134143.7004391764</v>
+        <v>185075.0411237068</v>
       </c>
       <c r="AF2" t="n">
         <v>3.398911228039099e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.504166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>121341.2139411633</v>
+        <v>167411.7389533639</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.955450757163</v>
+        <v>189.6275780515151</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.6520015401573</v>
+        <v>259.4568180682807</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.0290736739284</v>
+        <v>234.6946235018509</v>
       </c>
       <c r="AD2" t="n">
-        <v>134955.450757163</v>
+        <v>189627.5780515151</v>
       </c>
       <c r="AE2" t="n">
-        <v>184652.0015401573</v>
+        <v>259456.8180682807</v>
       </c>
       <c r="AF2" t="n">
         <v>3.182467927229137e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>167029.0736739284</v>
+        <v>234694.6235018509</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.87802857737128</v>
+        <v>118.6720143463181</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9750838382843</v>
+        <v>162.3722854683363</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.2385144334049</v>
+        <v>146.875702434217</v>
       </c>
       <c r="AD2" t="n">
-        <v>89878.02857737128</v>
+        <v>118672.0143463181</v>
       </c>
       <c r="AE2" t="n">
-        <v>122975.0838382843</v>
+        <v>162372.2854683363</v>
       </c>
       <c r="AF2" t="n">
         <v>2.889903811363319e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111238.5144334049</v>
+        <v>146875.702434217</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.43270030661752</v>
+        <v>106.2940058832687</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.9468366491142</v>
+        <v>145.4361482100076</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.83541925666871</v>
+        <v>131.5559263457999</v>
       </c>
       <c r="AD3" t="n">
-        <v>77432.70030661752</v>
+        <v>106294.0058832687</v>
       </c>
       <c r="AE3" t="n">
-        <v>105946.8366491142</v>
+        <v>145436.1482100076</v>
       </c>
       <c r="AF3" t="n">
         <v>3.072678624580686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>95835.41925666871</v>
+        <v>131555.9263457999</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.9192236734118</v>
+        <v>155.864538845251</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.9740399420002</v>
+        <v>213.2607383061285</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.7063420949549</v>
+        <v>192.9074327555787</v>
       </c>
       <c r="AD2" t="n">
-        <v>116919.2236734118</v>
+        <v>155864.538845251</v>
       </c>
       <c r="AE2" t="n">
-        <v>159974.0399420002</v>
+        <v>213260.7383061285</v>
       </c>
       <c r="AF2" t="n">
         <v>2.09332218107841e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.825</v>
       </c>
       <c r="AH2" t="n">
-        <v>144706.3420949549</v>
+        <v>192907.4327555787</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.7189968878096</v>
+        <v>107.927983266689</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.7068043789004</v>
+        <v>147.6718281519967</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.42741813645493</v>
+        <v>133.5782361319228</v>
       </c>
       <c r="AD3" t="n">
-        <v>78718.9968878096</v>
+        <v>107927.983266689</v>
       </c>
       <c r="AE3" t="n">
-        <v>107706.8043789004</v>
+        <v>147671.8281519967</v>
       </c>
       <c r="AF3" t="n">
         <v>2.859511114573389e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.725000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>97427.41813645493</v>
+        <v>133578.2361319227</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.3832481476704</v>
+        <v>245.552272172005</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.2306092445947</v>
+        <v>335.9754517872734</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.5896528536104</v>
+        <v>303.9104262133042</v>
       </c>
       <c r="AD2" t="n">
-        <v>173383.2481476704</v>
+        <v>245552.272172005</v>
       </c>
       <c r="AE2" t="n">
-        <v>237230.6092445947</v>
+        <v>335975.4517872733</v>
       </c>
       <c r="AF2" t="n">
         <v>2.84292932237156e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>214589.6528536104</v>
+        <v>303910.4262133042</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.93791976630845</v>
+        <v>115.3014087666325</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.9522972545438</v>
+        <v>157.7604742135894</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.5996569551988</v>
+        <v>142.7040359729039</v>
       </c>
       <c r="AD2" t="n">
-        <v>86937.91976630845</v>
+        <v>115301.4087666325</v>
       </c>
       <c r="AE2" t="n">
-        <v>118952.2972545438</v>
+        <v>157760.4742135894</v>
       </c>
       <c r="AF2" t="n">
         <v>3.307154226960551e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.550000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>107599.6569551988</v>
+        <v>142704.0359729039</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.32813055376604</v>
+        <v>115.9256545934278</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.486200868828</v>
+        <v>158.6145948935925</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.0826055578743</v>
+        <v>143.4766405739738</v>
       </c>
       <c r="AD2" t="n">
-        <v>87328.13055376604</v>
+        <v>115925.6545934278</v>
       </c>
       <c r="AE2" t="n">
-        <v>119486.2008688279</v>
+        <v>158614.5948935925</v>
       </c>
       <c r="AF2" t="n">
         <v>3.129873716839857e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.162499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>108082.6055578743</v>
+        <v>143476.6405739738</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.88651067103872</v>
+        <v>115.4840347107005</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8819570623866</v>
+        <v>158.0103510871511</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.536029932258</v>
+        <v>142.9300649483574</v>
       </c>
       <c r="AD3" t="n">
-        <v>86886.51067103872</v>
+        <v>115484.0347107005</v>
       </c>
       <c r="AE3" t="n">
-        <v>118881.9570623866</v>
+        <v>158010.3510871511</v>
       </c>
       <c r="AF3" t="n">
         <v>3.168894148430499e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.087499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>107536.029932258</v>
+        <v>142930.0649483574</v>
       </c>
     </row>
   </sheetData>
